--- a/samples/bora-small/config.xlsx
+++ b/samples/bora-small/config.xlsx
@@ -217,13 +217,13 @@
     <t xml:space="preserve">20210428_0536</t>
   </si>
   <si>
+    <t xml:space="preserve">u_1sec</t>
+  </si>
+  <si>
     <t xml:space="preserve">28AVRIL_site_naturel/20210428T054700_2614231112834446</t>
   </si>
   <si>
     <t xml:space="preserve">20210428_0547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^ too many points for current renderer</t>
   </si>
   <si>
     <t xml:space="preserve">28AVRIL_site_naturel/20210428T055800_2614231112834446</t>
@@ -3653,7 +3653,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
@@ -4015,7 +4015,9 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>28</v>
@@ -4044,7 +4046,7 @@
         <v>28</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X7" s="7" t="s">
         <v>49</v>
@@ -4054,9 +4056,6 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>2</v>
